--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261AF957-6E3B-4AEF-8C16-FA3FC96E48E2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="915" windowWidth="27390" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>taskforce</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>LTFU</t>
+  </si>
+  <si>
+    <t>The objective of this WG is to promote the concept of estimands and establish a harmonized estimand framework for the clinical development of Cell and Gene Therapies (CGT). Specifically, the WG’s aim is to identify and address the unique challenges posed by intercurrent events in CGT development, and formulate appropriate strategies for their handling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify key CMC challenges in CGT development and to serve as key opinion leaders in CGT CMC within biopharmaceutical communities </t>
   </si>
 </sst>
 </file>
@@ -422,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,11 +463,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -479,7 +487,9 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -568,4 +568,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100783019AEDAA863499A5FE548DC86AC7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31ec6b447407bce11483c535c98261eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="238314b5-2e5b-4df7-a1a7-303d49bb0d3d" xmlns:ns3="13d981ae-15aa-45ba-ad30-ef48ef224202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb08ee3d2dc06d7ab1aa189987b284f" ns2:_="" ns3:_="">
+    <xsd:import namespace="238314b5-2e5b-4df7-a1a7-303d49bb0d3d"/>
+    <xsd:import namespace="13d981ae-15aa-45ba-ad30-ef48ef224202"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="238314b5-2e5b-4df7-a1a7-303d49bb0d3d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="737bc47b-3997-4ccb-824d-08e9c3bde3a4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="13d981ae-15aa-45ba-ad30-ef48ef224202" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a3954255-f19b-46c6-9992-e3413e9cecaa}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="13d981ae-15aa-45ba-ad30-ef48ef224202">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58F9935-BE6F-4BC4-BF31-392431CF9FD0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}"/>
 </file>
--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261AF957-6E3B-4AEF-8C16-FA3FC96E48E2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F45678C-DAFE-4B49-97BC-9FB3A9A1B655}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>taskforce</t>
   </si>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t xml:space="preserve">To identify key CMC challenges in CGT development and to serve as key opinion leaders in CGT CMC within biopharmaceutical communities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To promote best practices in the design and analysis of cell and gene therapy trials through knowledge sharing of current global development in the field with focus on the following: 
+1.       Types of cell and gene therapies (what they are, how they work, what are the important considerations for statisticians) 
+2.       New and updated regulatory guidance 
+3.       New therapy approvals  
+4.       Industry hot topics or safety findings (eg, secondary malignancy investigations, new safety AEs)  
+In addition, the subteam supports requests for short courses and other presentations as well as general outreach. </t>
   </si>
 </sst>
 </file>
@@ -429,7 +437,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,11 +512,13 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -571,6 +581,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100783019AEDAA863499A5FE548DC86AC7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31ec6b447407bce11483c535c98261eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="238314b5-2e5b-4df7-a1a7-303d49bb0d3d" xmlns:ns3="13d981ae-15aa-45ba-ad30-ef48ef224202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb08ee3d2dc06d7ab1aa189987b284f" ns2:_="" ns3:_="">
     <xsd:import namespace="238314b5-2e5b-4df7-a1a7-303d49bb0d3d"/>
@@ -793,19 +812,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58F9935-BE6F-4BC4-BF31-392431CF9FD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58F9935-BE6F-4BC4-BF31-392431CF9FD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="238314b5-2e5b-4df7-a1a7-303d49bb0d3d"/>
+    <ds:schemaRef ds:uri="13d981ae-15aa-45ba-ad30-ef48ef224202"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F45678C-DAFE-4B49-97BC-9FB3A9A1B655}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3FBF00-CC27-41FF-83B8-D35E0962A18C}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,10 @@
   </si>
   <si>
     <t xml:space="preserve">To promote best practices in the design and analysis of cell and gene therapy trials through knowledge sharing of current global development in the field with focus on the following: 
-1.       Types of cell and gene therapies (what they are, how they work, what are the important considerations for statisticians) 
-2.       New and updated regulatory guidance 
-3.       New therapy approvals  
-4.       Industry hot topics or safety findings (eg, secondary malignancy investigations, new safety AEs)  
+1. Types of cell and gene therapies (what they are, how they work, what are the important considerations for statisticians) 
+2. New and updated regulatory guidance 
+3. New therapy approvals  
+4. Industry hot topics or safety findings (eg, secondary malignancy investigations, new safety AEs)  
 In addition, the subteam supports requests for short courses and other presentations as well as general outreach. </t>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>

--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3FBF00-CC27-41FF-83B8-D35E0962A18C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72D65D93-291E-41A5-BE94-B25F41D08C71}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>taskforce</t>
   </si>
@@ -70,6 +70,21 @@
 3. New therapy approvals  
 4. Industry hot topics or safety findings (eg, secondary malignancy investigations, new safety AEs)  
 In addition, the subteam supports requests for short courses and other presentations as well as general outreach. </t>
+  </si>
+  <si>
+    <t>Promote statistical thinking and best practices in the design and conduct of long-term follow-up studies for cell and gene therapy products through sound statistical methodology and innovative technology.</t>
+  </si>
+  <si>
+    <t>Understand the  opportunities and challenges associated Data Science and application of AI and Data Science in CGT (long term)
+Serve as key opinion leaders in CGT Data Science &amp; AI within biopharmaceutical communities (long term)​
+Share presentation and publication (short term)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+To make the biopharmaceutical community aware of the dose finding methods and designs that CGT development can already adopt and identify improvements in these methods for the future as well as key challenges in dose finding in CGT development.</t>
+  </si>
+  <si>
+    <t>DSAI</t>
   </si>
 </sst>
 </file>
@@ -128,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -143,6 +158,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +465,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,16 +477,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -466,84 +494,101 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="9"/>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -581,15 +626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100783019AEDAA863499A5FE548DC86AC7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31ec6b447407bce11483c535c98261eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="238314b5-2e5b-4df7-a1a7-303d49bb0d3d" xmlns:ns3="13d981ae-15aa-45ba-ad30-ef48ef224202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb08ee3d2dc06d7ab1aa189987b284f" ns2:_="" ns3:_="">
     <xsd:import namespace="238314b5-2e5b-4df7-a1a7-303d49bb0d3d"/>
@@ -812,15 +848,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58F9935-BE6F-4BC4-BF31-392431CF9FD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -837,4 +874,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72D65D93-291E-41A5-BE94-B25F41D08C71}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442375CA-428D-4C1C-B352-3EF2885427F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,9 @@
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,6 +628,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100783019AEDAA863499A5FE548DC86AC7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31ec6b447407bce11483c535c98261eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="238314b5-2e5b-4df7-a1a7-303d49bb0d3d" xmlns:ns3="13d981ae-15aa-45ba-ad30-ef48ef224202" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efb08ee3d2dc06d7ab1aa189987b284f" ns2:_="" ns3:_="">
     <xsd:import namespace="238314b5-2e5b-4df7-a1a7-303d49bb0d3d"/>
@@ -848,16 +859,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58F9935-BE6F-4BC4-BF31-392431CF9FD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -874,12 +884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C682A3-72D2-4EED-98A1-D8355B8F4DF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/objectives.xlsx
+++ b/data/objectives.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1B8F5FAF-9189-4E9A-8FEB-F0BD4039C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442375CA-428D-4C1C-B352-3EF2885427F6}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9FEC01D4-2C94-419F-951F-82FDC78DD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D7DC11-F201-4FF0-9B50-AEB7772AFB3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>taskforce</t>
   </si>
@@ -37,31 +48,33 @@
     <t>RWE</t>
   </si>
   <si>
+    <t xml:space="preserve">
+The objective of this WG is to develop recommendations for generating robust RWE/RWD to support regulatory approval for CGT products. Specifically, the WG will review methods for direct and indirect comparisons using RWD and reflects on the opportunities and challenges of these approaches in the setting of CGT drug development using case studies as examples.</t>
+  </si>
+  <si>
     <t>Estimand</t>
   </si>
   <si>
+    <t>The objective of this WG is to promote the concept of estimands and establish a harmonized estimand framework for the clinical development of Cell and Gene Therapies (CGT). Specifically, the WG’s aim is to identify and address the unique challenges posed by intercurrent events in CGT development, and formulate appropriate strategies for their handling.</t>
+  </si>
+  <si>
     <t>DoseFinding</t>
   </si>
   <si>
+    <t xml:space="preserve">	
+To make the biopharmaceutical community aware of the dose finding methods and designs that CGT development can already adopt and identify improvements in these methods for the future as well as key challenges in dose finding in CGT development.</t>
+  </si>
+  <si>
     <t>CMC</t>
   </si>
   <si>
+    <t xml:space="preserve">To identify key CMC challenges in CGT development and to serve as key opinion leaders in CGT CMC within biopharmaceutical communities </t>
+  </si>
+  <si>
     <t>Safety</t>
   </si>
   <si>
     <t>ContEd</t>
-  </si>
-  <si>
-    <t>TrialDesign</t>
-  </si>
-  <si>
-    <t>LTFU</t>
-  </si>
-  <si>
-    <t>The objective of this WG is to promote the concept of estimands and establish a harmonized estimand framework for the clinical development of Cell and Gene Therapies (CGT). Specifically, the WG’s aim is to identify and address the unique challenges posed by intercurrent events in CGT development, and formulate appropriate strategies for their handling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify key CMC challenges in CGT development and to serve as key opinion leaders in CGT CMC within biopharmaceutical communities </t>
   </si>
   <si>
     <t xml:space="preserve">To promote best practices in the design and analysis of cell and gene therapy trials through knowledge sharing of current global development in the field with focus on the following: 
@@ -72,7 +85,16 @@
 In addition, the subteam supports requests for short courses and other presentations as well as general outreach. </t>
   </si>
   <si>
+    <t>TrialDesign</t>
+  </si>
+  <si>
+    <t>LTFU</t>
+  </si>
+  <si>
     <t>Promote statistical thinking and best practices in the design and conduct of long-term follow-up studies for cell and gene therapy products through sound statistical methodology and innovative technology.</t>
+  </si>
+  <si>
+    <t>DSAI</t>
   </si>
   <si>
     <t>Understand the  opportunities and challenges associated Data Science and application of AI and Data Science in CGT (long term)
@@ -80,11 +102,7 @@
 Share presentation and publication (short term)</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-To make the biopharmaceutical community aware of the dose finding methods and designs that CGT development can already adopt and identify improvements in these methods for the future as well as key challenges in dose finding in CGT development.</t>
-  </si>
-  <si>
-    <t>DSAI</t>
+    <t>The objective of this subgroup is to research and evaluate clinical trial design options in CGT development focusing on registrational trials. Specifically, we aim to explore new ideas and innovative approaches to provide insights, best practices, and recommendations to CGT drug development community on effective designs to accelerate drug approvals in various therapeutic areas including but not limited to oncology, autoimmune, and rare genetic disorders.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +483,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +508,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="7">
         <v>2</v>
       </c>
@@ -502,10 +522,10 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -514,10 +534,10 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
@@ -526,10 +546,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -538,7 +558,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="7">
@@ -548,7 +568,7 @@
     </row>
     <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -558,11 +578,13 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -570,10 +592,10 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -585,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
